--- a/_sync/游戏开发调研.xlsx
+++ b/_sync/游戏开发调研.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9890CA4-CA1A-4EA6-B7EB-99F48E5DD0B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9A54F-2EBA-4E55-8774-1F3FA55AEC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
-    <sheet name="文献参考" sheetId="2" r:id="rId2"/>
-    <sheet name="想法" sheetId="3" r:id="rId3"/>
-    <sheet name="资产网址" sheetId="4" r:id="rId4"/>
-    <sheet name="灵感" sheetId="5" r:id="rId5"/>
+    <sheet name="有趣小知识" sheetId="6" r:id="rId2"/>
+    <sheet name="文献参考" sheetId="2" r:id="rId3"/>
+    <sheet name="想法" sheetId="3" r:id="rId4"/>
+    <sheet name="资产网址" sheetId="4" r:id="rId5"/>
+    <sheet name="灵感" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="171">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +818,37 @@
   <si>
     <t>音频</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如遇到怪物碰一下就死的情况,动作游戏可以靠操作,跑带打耗死敌人.但是回合制游戏即使加满buff,开启防御,加上回血,依然可能敌不过有极端差距的敌人.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩坏星穹轨道是回合制游戏,原神是动作游戏.有人问我遇到无论如何都打不过的时候怎么办,当然是要靠升级角色,升级装备,升级技能.但是极端情况下,动作游戏可以靠操作耗死敌人,但是回合制游戏即使操作再极限也很难规避开极端差距.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏可视化开发工具</t>
+  </si>
+  <si>
+    <t>https://kenney.itch.io/ship-mixer</t>
+  </si>
+  <si>
+    <t>https://kenney.itch.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rolegenerator.com/</t>
+  </si>
+  <si>
+    <t>随机生成器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/a1studmuffin/SpaceshipGenerator</t>
+  </si>
+  <si>
+    <t>godot更新内容列表</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,9 +1601,6 @@
       <c r="D23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1607,6 +1636,9 @@
       <c r="A27" t="s">
         <v>118</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>116</v>
       </c>
@@ -1630,67 +1662,73 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
+      <c r="D33" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1702,14 +1740,43 @@
     <hyperlink ref="C27" r:id="rId3" display="https://github.com/Cysharp/MemoryPack" xr:uid="{85074A76-EE9C-4C6D-8E2B-BC050733FC53}"/>
     <hyperlink ref="C28" r:id="rId4" display="https://github.com/Cysharp/ZString" xr:uid="{1A0076EA-2C23-4DAB-95B1-FD75BD8E59FF}"/>
     <hyperlink ref="J2" r:id="rId5" xr:uid="{574F8EE3-5A50-45A3-85BD-4EDFBD15C97D}"/>
+    <hyperlink ref="D33" r:id="rId6" location="/" xr:uid="{3A747011-A22A-48B2-A7A9-CD8AA7C707A0}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{77395E46-1AB0-49CE-9098-6A4769DC493F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CD13D-49CB-448D-A90E-DC5A1C3BD754}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1752,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -1871,12 +1938,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1940,6 +2007,16 @@
         <v>110</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
@@ -1967,19 +2044,35 @@
       </c>
       <c r="B15" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{034CE2C8-2F5B-4C31-B9D3-27036078945E}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{8BC94D73-6CD4-4F9C-91B1-05958A6710AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1609A08-E6F8-4B9B-BBBB-890A1532EC4F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/_sync/游戏开发调研.xlsx
+++ b/_sync/游戏开发调研.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9A54F-2EBA-4E55-8774-1F3FA55AEC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60DFE9-14B3-4A8E-867C-BA03659FA21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="172">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,44 +559,20 @@
     <t>https://craftpix.net/membership/</t>
   </si>
   <si>
-    <t>美术资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>声音资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://game-icons.net/</t>
   </si>
   <si>
-    <t>2D,付费,免费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标,图块,免费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://gamedev3d.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2D,3D,测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://kenney.nl/assets</t>
   </si>
   <si>
-    <t>2D,3D,免费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.aigei.com/</t>
   </si>
   <si>
@@ -625,10 +601,6 @@
     <t>https://itch.io/game-assets</t>
   </si>
   <si>
-    <t>2D,3D,免费,付费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unity一种动画优化方法</t>
   </si>
   <si>
@@ -834,10 +806,6 @@
     <t>https://kenney.itch.io/ship-mixer</t>
   </si>
   <si>
-    <t>https://kenney.itch.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.rolegenerator.com/</t>
   </si>
   <si>
@@ -849,13 +817,47 @@
   </si>
   <si>
     <t>godot更新内容列表</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/</t>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/</t>
+  </si>
+  <si>
+    <t>资产网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +912,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -932,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,12 +954,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1275,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1308,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1327,7 +1568,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1378,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1389,7 +1630,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1415,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1435,7 +1676,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1443,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1623,42 +1864,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1680,56 +1921,56 @@
         <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1761,12 +2002,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +2042,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1842,22 +2083,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,61 +2111,61 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1940,135 +2181,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="2" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{034CE2C8-2F5B-4C31-B9D3-27036078945E}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{8BC94D73-6CD4-4F9C-91B1-05958A6710AD}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{034CE2C8-2F5B-4C31-B9D3-27036078945E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
